--- a/EnlacesSeguimiento.xlsx
+++ b/EnlacesSeguimiento.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programación\devAcademy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311212CA-4AFB-4E3A-A12C-17EDB0CB1FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53134BDC-3C95-4A20-A34D-27872445082C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3765" yWindow="510" windowWidth="16800" windowHeight="14700" xr2:uid="{77FD7960-D71C-4784-96B9-F018AC5F143A}"/>
+    <workbookView xWindow="3765" yWindow="510" windowWidth="24510" windowHeight="14700" xr2:uid="{77FD7960-D71C-4784-96B9-F018AC5F143A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="51">
   <si>
     <t>Curso</t>
   </si>
@@ -590,7 +590,7 @@
   <dimension ref="B4:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,8 +868,11 @@
       <c r="C43" t="s">
         <v>4</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="1" t="s">
         <v>48</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
@@ -900,8 +903,9 @@
     <hyperlink ref="D16" r:id="rId2" xr:uid="{F0963DA5-62C4-41E5-BA70-FE6CC21FC26E}"/>
     <hyperlink ref="D11" r:id="rId3" xr:uid="{A95307B1-B275-4E49-8C82-DE0801A95B35}"/>
     <hyperlink ref="D7" r:id="rId4" xr:uid="{389BFC33-28F6-4A5D-9F8A-71F5C5A7679C}"/>
+    <hyperlink ref="D43" r:id="rId5" xr:uid="{91297A19-ABFF-4D9B-81FD-0CB8F2860D45}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId6"/>
 </worksheet>
 </file>